--- a/Acquizioni/valori insieme/Media_doseinalata.xlsx
+++ b/Acquizioni/valori insieme/Media_doseinalata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nrf_sdk\nRF5_SDK_17.1.0_ddde560\examples\Progetto_WearableAirMonitoring\Acquizioni\valori insieme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F01A0-2445-43ED-A01D-9E6DB99040B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCDB846-7ABC-472C-9CF9-F41177EBE1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{EA811552-15E2-4973-B871-4DE9CCD557AF}"/>
+    <workbookView xWindow="2520" yWindow="456" windowWidth="17280" windowHeight="10776" activeTab="3" xr2:uid="{EA811552-15E2-4973-B871-4DE9CCD557AF}"/>
   </bookViews>
   <sheets>
     <sheet name="VOC" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -87,7 +87,10 @@
     <t>S07</t>
   </si>
   <si>
-    <t>media dei 5 minuti</t>
+    <t>dose inalata dopo 5 minuti</t>
+  </si>
+  <si>
+    <t>SOMMA</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,16 +122,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -180,12 +224,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Media</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> concentrazione tVOC</a:t>
+              <a:t> tVOC inalato in 5 minuti</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -216,7 +256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -284,28 +324,28 @@
             <c:numRef>
               <c:f>VOC!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>487.18</c:v>
+                  <c:v>91399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218.56</c:v>
+                  <c:v>32805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195.32</c:v>
+                  <c:v>24702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.114000000000004</c:v>
+                  <c:v>13087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.355999999999995</c:v>
+                  <c:v>11778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.304000000000002</c:v>
+                  <c:v>8777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>217.36</c:v>
+                  <c:v>24722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,28 +413,28 @@
             <c:numRef>
               <c:f>VOC!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>611.36</c:v>
+                  <c:v>49452.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234.51</c:v>
+                  <c:v>28580.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.99</c:v>
+                  <c:v>10210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.28</c:v>
+                  <c:v>11066.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.75</c:v>
+                  <c:v>6865.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.07</c:v>
+                  <c:v>4208.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.89</c:v>
+                  <c:v>9549.7999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,28 +502,28 @@
             <c:numRef>
               <c:f>VOC!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>841.4</c:v>
+                  <c:v>134663.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.47</c:v>
+                  <c:v>25998.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106.05</c:v>
+                  <c:v>15314.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.18</c:v>
+                  <c:v>24172.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.56</c:v>
+                  <c:v>17913.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>386.91</c:v>
+                  <c:v>45510.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>719.3</c:v>
+                  <c:v>145429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,28 +591,28 @@
             <c:numRef>
               <c:f>VOC!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>955.95</c:v>
+                  <c:v>110909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.8</c:v>
+                  <c:v>47077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.44</c:v>
+                  <c:v>22340</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167.34</c:v>
+                  <c:v>19281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.14</c:v>
+                  <c:v>5046</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.86</c:v>
+                  <c:v>16529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.57</c:v>
+                  <c:v>13828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,28 +680,28 @@
             <c:numRef>
               <c:f>VOC!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>528.5</c:v>
+                  <c:v>130181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>298.3</c:v>
+                  <c:v>82771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>301.82</c:v>
+                  <c:v>49967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.75</c:v>
+                  <c:v>60343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284.99</c:v>
+                  <c:v>47924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.04</c:v>
+                  <c:v>19160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>756.23</c:v>
+                  <c:v>86880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,28 +769,28 @@
             <c:numRef>
               <c:f>VOC!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>598.12</c:v>
+                  <c:v>63299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.01</c:v>
+                  <c:v>42346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307.2</c:v>
+                  <c:v>46737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>302.43</c:v>
+                  <c:v>33662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.33</c:v>
+                  <c:v>15960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>343.16</c:v>
+                  <c:v>50022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236.57</c:v>
+                  <c:v>35943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,28 +860,28 @@
             <c:numRef>
               <c:f>VOC!$C$10:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>668.63</c:v>
+                  <c:v>153787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.492000000000004</c:v>
+                  <c:v>13596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.774000000000001</c:v>
+                  <c:v>2218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>424.88</c:v>
+                  <c:v>55595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>349.69</c:v>
+                  <c:v>77239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>387.83</c:v>
+                  <c:v>41431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>529.22</c:v>
+                  <c:v>72678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +946,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1003378384"/>
@@ -937,7 +977,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -965,7 +1005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1003363824"/>
@@ -1007,7 +1047,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1044,7 +1084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1090,12 +1130,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Media concentrazione CO</a:t>
+              <a:t>CO</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="-25000"/>
-              <a:t>2</a:t>
+              <a:t>2 </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>inalato in 5 minuti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" baseline="-25000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1124,7 +1169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1192,28 +1237,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1043.1300000000001</c:v>
+                  <c:v>192251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>647.21</c:v>
+                  <c:v>119904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>789.94</c:v>
+                  <c:v>117580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>671.52</c:v>
+                  <c:v>106838</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>655.64</c:v>
+                  <c:v>99696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>706.48</c:v>
+                  <c:v>78841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>658.74</c:v>
+                  <c:v>78360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,28 +1326,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>884.33</c:v>
+                  <c:v>72304.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>611.29</c:v>
+                  <c:v>87751.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>620.80999999999995</c:v>
+                  <c:v>52698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>619.59</c:v>
+                  <c:v>89193.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>614.99</c:v>
+                  <c:v>58761.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>637.44000000000005</c:v>
+                  <c:v>51454.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>632.99</c:v>
+                  <c:v>82634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,28 +1415,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1361</c:v>
+                  <c:v>221845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577.53</c:v>
+                  <c:v>97683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>573.14</c:v>
+                  <c:v>86196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>578.09</c:v>
+                  <c:v>77182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>569.12</c:v>
+                  <c:v>103669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>583.16999999999996</c:v>
+                  <c:v>90972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>593.1</c:v>
+                  <c:v>117627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,28 +1504,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>863.01</c:v>
+                  <c:v>99461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601.26</c:v>
+                  <c:v>64187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>585.25</c:v>
+                  <c:v>64690</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>598.41999999999996</c:v>
+                  <c:v>75620</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>610.61</c:v>
+                  <c:v>63542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>606.09</c:v>
+                  <c:v>70881</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>623.91</c:v>
+                  <c:v>66178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,28 +1593,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>832.68</c:v>
+                  <c:v>203733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>615.62</c:v>
+                  <c:v>171604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>679.78</c:v>
+                  <c:v>128033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>705.6</c:v>
+                  <c:v>145294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>659.35</c:v>
+                  <c:v>137198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>616.49</c:v>
+                  <c:v>131938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>713.94</c:v>
+                  <c:v>88308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,28 +1682,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1083.5</c:v>
+                  <c:v>115779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>645.47</c:v>
+                  <c:v>70534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635.17999999999995</c:v>
+                  <c:v>99461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>626.32000000000005</c:v>
+                  <c:v>87159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>655.38</c:v>
+                  <c:v>105594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>699.41</c:v>
+                  <c:v>102942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>712.96</c:v>
+                  <c:v>91756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,28 +1773,28 @@
             <c:numRef>
               <c:f>'CO2'!$C$10:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>854.67</c:v>
+                  <c:v>197657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>609.34</c:v>
+                  <c:v>141940</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>598.46</c:v>
+                  <c:v>79865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>601.80999999999995</c:v>
+                  <c:v>78755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>582.37</c:v>
+                  <c:v>139950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>585.87</c:v>
+                  <c:v>63739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>613.21600000000001</c:v>
+                  <c:v>86199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,7 +1859,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1003347600"/>
@@ -1845,7 +1890,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1873,7 +1918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1003343440"/>
@@ -1915,7 +1960,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1952,7 +1997,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1977,6 +2022,72 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PM1.0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>inalato in 5 minuti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2041,28 +2152,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.25</c:v>
+                  <c:v>5813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.659999999999997</c:v>
+                  <c:v>5613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.659999999999997</c:v>
+                  <c:v>5927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.47</c:v>
+                  <c:v>5975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.06</c:v>
+                  <c:v>4393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.68</c:v>
+                  <c:v>4087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,28 +2241,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0990000000000002</c:v>
+                  <c:v>511.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.53</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.09</c:v>
+                  <c:v>684.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.33</c:v>
+                  <c:v>1493.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.49</c:v>
+                  <c:v>1191.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.32</c:v>
+                  <c:v>1467.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.16</c:v>
+                  <c:v>2224.1999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,28 +2330,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.37</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.73</c:v>
+                  <c:v>4203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.53</c:v>
+                  <c:v>3557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.53</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5</c:v>
+                  <c:v>4254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.44</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,28 +2419,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.43</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.57</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.55</c:v>
+                  <c:v>2404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.13</c:v>
+                  <c:v>2413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.59</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.6</c:v>
+                  <c:v>2485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.8</c:v>
+                  <c:v>2732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,28 +2508,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.42</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.54</c:v>
+                  <c:v>12744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.270000000000003</c:v>
+                  <c:v>6092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.72</c:v>
+                  <c:v>6384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.020000000000003</c:v>
+                  <c:v>6766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.78</c:v>
+                  <c:v>7045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.74</c:v>
+                  <c:v>3544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,28 +2597,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.53</c:v>
+                  <c:v>1263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.39</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.95</c:v>
+                  <c:v>2577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.940000000000001</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.86</c:v>
+                  <c:v>3003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.45</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.01</c:v>
+                  <c:v>4209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,28 +2688,28 @@
             <c:numRef>
               <c:f>'PM1.0'!$C$10:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.57</c:v>
+                  <c:v>3620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.55</c:v>
+                  <c:v>7018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>3308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.46</c:v>
+                  <c:v>3287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.47</c:v>
+                  <c:v>5648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.45</c:v>
+                  <c:v>2110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.2</c:v>
+                  <c:v>3278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,7 +2774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1152219791"/>
@@ -2694,7 +2805,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2722,7 +2833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1152227279"/>
@@ -2737,6 +2848,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2770,7 +2912,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2815,12 +2957,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Media</a:t>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>PM2.5 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> concentrazione PM2.5</a:t>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>inalato in 5 minuti</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2851,19 +2995,29 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.18287719298245617"/>
+          <c:w val="0.77991469816272962"/>
+          <c:h val="0.71794962471796286"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2886,73 +3040,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'PM2.5'!$C$3:$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'PM2.5'!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>3112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.17</c:v>
+                  <c:v>5813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.82</c:v>
+                  <c:v>5613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.229999999999997</c:v>
+                  <c:v>5927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.29</c:v>
+                  <c:v>5975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.49</c:v>
+                  <c:v>4393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.32</c:v>
+                  <c:v>4087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C681-4AD9-A897-FC98081A3090}"/>
+              <c16:uniqueId val="{00000000-3C4C-4444-A590-14D28CC69E96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3008,35 +3133,35 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.49</c:v>
+                  <c:v>448.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.53</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.45</c:v>
+                  <c:v>627.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9</c:v>
+                  <c:v>1457.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.57</c:v>
+                  <c:v>1094.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.13</c:v>
+                  <c:v>1451.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.86</c:v>
+                  <c:v>2208.6999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C681-4AD9-A897-FC98081A3090}"/>
+              <c16:uniqueId val="{00000000-C681-4AD9-A897-FC98081A3090}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3097,28 +3222,28 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.92</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.68</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.24</c:v>
+                  <c:v>3514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.16</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.3</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.57</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,28 +3311,28 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.2680000000000007</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.19</c:v>
+                  <c:v>2271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.35</c:v>
+                  <c:v>2381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.690000000000001</c:v>
+                  <c:v>2354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.38</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.73</c:v>
+                  <c:v>2724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,28 +3400,28 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.35</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.35</c:v>
+                  <c:v>11487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.81</c:v>
+                  <c:v>5984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.42</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.31</c:v>
+                  <c:v>6608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.119999999999997</c:v>
+                  <c:v>6868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.42</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,28 +3489,28 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.989999999999998</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.350000000000001</c:v>
+                  <c:v>2502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.79</c:v>
+                  <c:v>2447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>2973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.21</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.47</c:v>
+                  <c:v>4159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,28 +3580,28 @@
             <c:numRef>
               <c:f>'PM2.5'!$C$10:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.472</c:v>
+                  <c:v>3594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.11</c:v>
+                  <c:v>6929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.42</c:v>
+                  <c:v>3229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.38</c:v>
+                  <c:v>3153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.33</c:v>
+                  <c:v>5607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.940000000000001</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.4</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,7 +3666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1116703200"/>
@@ -3572,7 +3697,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3600,7 +3725,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1116718592"/>
@@ -3642,7 +3767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3679,7 +3804,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3705,6 +3830,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>PM2.5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>inalato in 5 minuti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3713,40 +3870,622 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.18287719298245617"/>
+          <c:w val="0.77991469816272962"/>
+          <c:h val="0.71794962471796286"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'PM10'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>511.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1493.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1191.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1467.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2224.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM10'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PM10'!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-2566-40C0-90DA-8D9F2721D083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PM2.5'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3765,77 +4504,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>F</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>G</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$4:$I$4</c:f>
+              <c:f>'PM2.5'!$C$4:$I$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>3112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.25</c:v>
+                  <c:v>5813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.659999999999997</c:v>
+                  <c:v>5613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.659999999999997</c:v>
+                  <c:v>5927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.47</c:v>
+                  <c:v>5975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.06</c:v>
+                  <c:v>4393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.68</c:v>
+                  <c:v>4087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000001-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$5</c:f>
+              <c:f>'PM2.5'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3856,7 +4566,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3885,46 +4595,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$5:$I$5</c:f>
+              <c:f>'PM2.5'!$C$5:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.1</c:v>
+                  <c:v>448.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.53</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.09</c:v>
+                  <c:v>627.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.33</c:v>
+                  <c:v>1457.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.49</c:v>
+                  <c:v>1094.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.32</c:v>
+                  <c:v>1451.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.16</c:v>
+                  <c:v>2208.6999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000003-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$6</c:f>
+              <c:f>'PM2.5'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3945,7 +4655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3974,46 +4684,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$6:$I$6</c:f>
+              <c:f>'PM2.5'!$C$6:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.37</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.73</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.53</c:v>
+                  <c:v>3514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.35</c:v>
+                  <c:v>3195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.5</c:v>
+                  <c:v>4223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.44</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>3607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000005-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$7</c:f>
+              <c:f>'PM2.5'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4034,7 +4744,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4063,46 +4773,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$7:$I$7</c:f>
+              <c:f>'PM2.5'!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.43</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.57</c:v>
+                  <c:v>2271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.55</c:v>
+                  <c:v>2381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.13</c:v>
+                  <c:v>2354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.59</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.6</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.8</c:v>
+                  <c:v>2724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000007-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$8</c:f>
+              <c:f>'PM2.5'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4123,7 +4833,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4152,46 +4862,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$8:$I$8</c:f>
+              <c:f>'PM2.5'!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.42</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.54</c:v>
+                  <c:v>11487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.270000000000003</c:v>
+                  <c:v>5984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.72</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.020000000000003</c:v>
+                  <c:v>6608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.78</c:v>
+                  <c:v>6868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.74</c:v>
+                  <c:v>3502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{00000009-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$9</c:f>
+              <c:f>'PM2.5'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4212,7 +4922,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4241,46 +4951,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$9:$I$9</c:f>
+              <c:f>'PM2.5'!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.53</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.39</c:v>
+                  <c:v>2093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.95</c:v>
+                  <c:v>2502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.940000000000001</c:v>
+                  <c:v>2447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.86</c:v>
+                  <c:v>2973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.49</c:v>
+                  <c:v>3118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.01</c:v>
+                  <c:v>4159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{0000000B-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PM10'!$B$10</c:f>
+              <c:f>'PM2.5'!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4303,7 +5013,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'PM10'!$C$3:$I$3</c:f>
+              <c:f>'PM2.5'!$C$3:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4332,37 +5042,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PM10'!$C$10:$I$10</c:f>
+              <c:f>'PM2.5'!$C$10:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.57</c:v>
+                  <c:v>3594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.55</c:v>
+                  <c:v>6929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>3229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.46</c:v>
+                  <c:v>3153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.47</c:v>
+                  <c:v>5607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.45</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.2</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2C2F-4D63-A471-FA733055DC1B}"/>
+              <c16:uniqueId val="{0000000D-2566-40C0-90DA-8D9F2721D083}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4376,11 +5086,11 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-50"/>
-        <c:axId val="1013417503"/>
-        <c:axId val="1013415007"/>
+        <c:axId val="1116718592"/>
+        <c:axId val="1116703200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1013417503"/>
+        <c:axId val="1116718592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,10 +5130,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013415007"/>
+        <c:crossAx val="1116703200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4431,7 +5141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1013415007"/>
+        <c:axId val="1116703200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +5161,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4479,23 +5189,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1013417503"/>
+        <c:crossAx val="1116718592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4521,36 +5224,15 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4558,7 +5240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4729,46 +5411,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6279,509 +6921,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7330,15 +7469,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7411,16 +7550,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7788,22 +7927,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD2E94E-2A0E-42ED-85FB-F526D1278B05}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -7835,182 +7979,182 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>487.18</v>
-      </c>
-      <c r="D4">
-        <v>218.56</v>
-      </c>
-      <c r="E4">
-        <v>195.32</v>
-      </c>
-      <c r="F4">
-        <v>98.114000000000004</v>
-      </c>
-      <c r="G4">
-        <v>77.355999999999995</v>
-      </c>
-      <c r="H4">
-        <v>77.304000000000002</v>
-      </c>
-      <c r="I4">
-        <v>217.36</v>
+      <c r="C4" s="1">
+        <v>91399</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32805</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24702</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13087</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11778</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8777</v>
+      </c>
+      <c r="I4" s="1">
+        <v>24722</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>611.36</v>
-      </c>
-      <c r="D5">
-        <v>234.51</v>
-      </c>
-      <c r="E5">
-        <v>120.99</v>
-      </c>
-      <c r="F5">
-        <v>123.28</v>
-      </c>
-      <c r="G5">
-        <v>73.75</v>
-      </c>
-      <c r="H5">
-        <v>51.07</v>
-      </c>
-      <c r="I5">
-        <v>95.89</v>
+      <c r="C5" s="1">
+        <v>49452.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28580.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10210</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11066.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6865.4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4208.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9549.7999999999993</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>841.4</v>
-      </c>
-      <c r="D6">
-        <v>149.47</v>
-      </c>
-      <c r="E6">
-        <v>106.05</v>
-      </c>
-      <c r="F6">
-        <v>177.18</v>
-      </c>
-      <c r="G6">
-        <v>106.56</v>
-      </c>
-      <c r="H6">
-        <v>386.91</v>
-      </c>
-      <c r="I6">
-        <v>719.3</v>
+      <c r="C6" s="1">
+        <v>134663.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25998.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15314.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24172.6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17913.099999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45510.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>145429</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>955.95</v>
-      </c>
-      <c r="D7">
-        <v>449.8</v>
-      </c>
-      <c r="E7">
-        <v>203.44</v>
-      </c>
-      <c r="F7">
-        <v>167.34</v>
-      </c>
-      <c r="G7">
-        <v>50.14</v>
-      </c>
-      <c r="H7">
-        <v>118.86</v>
-      </c>
-      <c r="I7" s="1">
-        <v>172.57</v>
+      <c r="C7" s="1">
+        <v>110909</v>
+      </c>
+      <c r="D7" s="1">
+        <v>47077</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22340</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19281</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5046</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16529</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13828</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>528.5</v>
-      </c>
-      <c r="D8">
-        <v>298.3</v>
-      </c>
-      <c r="E8">
-        <v>301.82</v>
-      </c>
-      <c r="F8">
-        <v>260.75</v>
-      </c>
-      <c r="G8">
-        <v>284.99</v>
-      </c>
-      <c r="H8">
-        <v>108.04</v>
-      </c>
-      <c r="I8" s="1">
-        <v>756.23</v>
+      <c r="C8" s="1">
+        <v>130181</v>
+      </c>
+      <c r="D8" s="1">
+        <v>82771</v>
+      </c>
+      <c r="E8" s="1">
+        <v>49967</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60343</v>
+      </c>
+      <c r="G8" s="1">
+        <v>47924</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19160</v>
+      </c>
+      <c r="I8" s="2">
+        <v>86880</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>598.12</v>
-      </c>
-      <c r="D9">
-        <v>397.01</v>
-      </c>
-      <c r="E9">
-        <v>307.2</v>
-      </c>
-      <c r="F9">
-        <v>302.43</v>
-      </c>
-      <c r="G9">
-        <v>82.33</v>
-      </c>
-      <c r="H9">
-        <v>343.16</v>
-      </c>
-      <c r="I9" s="1">
-        <v>236.57</v>
+      <c r="C9" s="1">
+        <v>63299</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42346</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46737</v>
+      </c>
+      <c r="F9" s="1">
+        <v>33662</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15960</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50022</v>
+      </c>
+      <c r="I9" s="2">
+        <v>35943</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>668.63</v>
-      </c>
-      <c r="D10">
-        <v>70.492000000000004</v>
-      </c>
-      <c r="E10">
-        <v>17.774000000000001</v>
-      </c>
-      <c r="F10">
-        <v>424.88</v>
-      </c>
-      <c r="G10">
-        <v>349.69</v>
-      </c>
-      <c r="H10">
-        <v>387.83</v>
-      </c>
-      <c r="I10" s="1">
-        <v>529.22</v>
+      <c r="C10" s="1">
+        <v>153787</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13596</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2218</v>
+      </c>
+      <c r="F10" s="1">
+        <v>55595</v>
+      </c>
+      <c r="G10" s="1">
+        <v>77239</v>
+      </c>
+      <c r="H10" s="1">
+        <v>41431</v>
+      </c>
+      <c r="I10" s="2">
+        <v>72678</v>
       </c>
     </row>
   </sheetData>
@@ -8026,22 +8170,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C746003-3A6E-4523-A8F1-82CD882FCD84}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8073,182 +8217,182 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1043.1300000000001</v>
-      </c>
-      <c r="D4">
-        <v>647.21</v>
-      </c>
-      <c r="E4">
-        <v>789.94</v>
-      </c>
-      <c r="F4">
-        <v>671.52</v>
-      </c>
-      <c r="G4">
-        <v>655.64</v>
-      </c>
-      <c r="H4">
-        <v>706.48</v>
-      </c>
-      <c r="I4">
-        <v>658.74</v>
+      <c r="C4" s="1">
+        <v>192251</v>
+      </c>
+      <c r="D4" s="1">
+        <v>119904</v>
+      </c>
+      <c r="E4" s="1">
+        <v>117580</v>
+      </c>
+      <c r="F4" s="1">
+        <v>106838</v>
+      </c>
+      <c r="G4" s="1">
+        <v>99696</v>
+      </c>
+      <c r="H4" s="1">
+        <v>78841</v>
+      </c>
+      <c r="I4" s="1">
+        <v>78360</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>884.33</v>
-      </c>
-      <c r="D5">
-        <v>611.29</v>
-      </c>
-      <c r="E5">
-        <v>620.80999999999995</v>
-      </c>
-      <c r="F5">
-        <v>619.59</v>
-      </c>
-      <c r="G5">
-        <v>614.99</v>
-      </c>
-      <c r="H5">
-        <v>637.44000000000005</v>
-      </c>
-      <c r="I5">
-        <v>632.99</v>
+      <c r="C5" s="1">
+        <v>72304.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>87751.7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>52698</v>
+      </c>
+      <c r="F5" s="1">
+        <v>89193.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>58761.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>51454.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>82634</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1361</v>
-      </c>
-      <c r="D6">
-        <v>577.53</v>
-      </c>
-      <c r="E6">
-        <v>573.14</v>
-      </c>
-      <c r="F6">
-        <v>578.09</v>
-      </c>
-      <c r="G6">
-        <v>569.12</v>
-      </c>
-      <c r="H6">
-        <v>583.16999999999996</v>
-      </c>
-      <c r="I6">
-        <v>593.1</v>
+      <c r="C6" s="1">
+        <v>221845</v>
+      </c>
+      <c r="D6" s="1">
+        <v>97683</v>
+      </c>
+      <c r="E6" s="1">
+        <v>86196</v>
+      </c>
+      <c r="F6" s="1">
+        <v>77182</v>
+      </c>
+      <c r="G6" s="1">
+        <v>103669</v>
+      </c>
+      <c r="H6" s="1">
+        <v>90972</v>
+      </c>
+      <c r="I6" s="1">
+        <v>117627</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>863.01</v>
-      </c>
-      <c r="D7">
-        <v>601.26</v>
-      </c>
-      <c r="E7">
-        <v>585.25</v>
-      </c>
-      <c r="F7">
-        <v>598.41999999999996</v>
-      </c>
-      <c r="G7">
-        <v>610.61</v>
-      </c>
-      <c r="H7">
-        <v>606.09</v>
-      </c>
-      <c r="I7" s="1">
-        <v>623.91</v>
+      <c r="C7" s="1">
+        <v>99461</v>
+      </c>
+      <c r="D7" s="1">
+        <v>64187</v>
+      </c>
+      <c r="E7" s="1">
+        <v>64690</v>
+      </c>
+      <c r="F7" s="1">
+        <v>75620</v>
+      </c>
+      <c r="G7" s="1">
+        <v>63542</v>
+      </c>
+      <c r="H7" s="1">
+        <v>70881</v>
+      </c>
+      <c r="I7" s="2">
+        <v>66178</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>832.68</v>
-      </c>
-      <c r="D8">
-        <v>615.62</v>
-      </c>
-      <c r="E8">
-        <v>679.78</v>
-      </c>
-      <c r="F8">
-        <v>705.6</v>
-      </c>
-      <c r="G8">
-        <v>659.35</v>
-      </c>
-      <c r="H8">
-        <v>616.49</v>
-      </c>
-      <c r="I8" s="1">
-        <v>713.94</v>
+      <c r="C8" s="1">
+        <v>203733</v>
+      </c>
+      <c r="D8" s="1">
+        <v>171604</v>
+      </c>
+      <c r="E8" s="1">
+        <v>128033</v>
+      </c>
+      <c r="F8" s="1">
+        <v>145294</v>
+      </c>
+      <c r="G8" s="1">
+        <v>137198</v>
+      </c>
+      <c r="H8" s="1">
+        <v>131938</v>
+      </c>
+      <c r="I8" s="2">
+        <v>88308</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>1083.5</v>
-      </c>
-      <c r="D9">
-        <v>645.47</v>
-      </c>
-      <c r="E9">
-        <v>635.17999999999995</v>
-      </c>
-      <c r="F9">
-        <v>626.32000000000005</v>
-      </c>
-      <c r="G9">
-        <v>655.38</v>
-      </c>
-      <c r="H9">
-        <v>699.41</v>
-      </c>
-      <c r="I9" s="1">
-        <v>712.96</v>
+      <c r="C9" s="1">
+        <v>115779</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70534</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99461</v>
+      </c>
+      <c r="F9" s="1">
+        <v>87159</v>
+      </c>
+      <c r="G9" s="1">
+        <v>105594</v>
+      </c>
+      <c r="H9" s="1">
+        <v>102942</v>
+      </c>
+      <c r="I9" s="2">
+        <v>91756</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>854.67</v>
-      </c>
-      <c r="D10">
-        <v>609.34</v>
-      </c>
-      <c r="E10">
-        <v>598.46</v>
-      </c>
-      <c r="F10">
-        <v>601.80999999999995</v>
-      </c>
-      <c r="G10">
-        <v>582.37</v>
-      </c>
-      <c r="H10">
-        <v>585.87</v>
-      </c>
-      <c r="I10" s="1">
-        <v>613.21600000000001</v>
+      <c r="C10" s="1">
+        <v>197657</v>
+      </c>
+      <c r="D10" s="1">
+        <v>141940</v>
+      </c>
+      <c r="E10" s="1">
+        <v>79865</v>
+      </c>
+      <c r="F10" s="1">
+        <v>78755</v>
+      </c>
+      <c r="G10" s="1">
+        <v>139950</v>
+      </c>
+      <c r="H10" s="1">
+        <v>63739</v>
+      </c>
+      <c r="I10" s="2">
+        <v>86199</v>
       </c>
     </row>
   </sheetData>
@@ -8262,24 +8406,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3B0577-A03F-4D71-AB5E-04B52DD67AF5}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8311,183 +8455,192 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="D4">
-        <v>33.25</v>
-      </c>
-      <c r="E4">
-        <v>38.659999999999997</v>
-      </c>
-      <c r="F4">
-        <v>37.659999999999997</v>
-      </c>
-      <c r="G4">
-        <v>39.47</v>
-      </c>
-      <c r="H4">
-        <v>40.06</v>
-      </c>
-      <c r="I4">
-        <v>34.68</v>
+      <c r="C4" s="1">
+        <v>3253</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5813</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5613</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5927</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5975</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4393</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4087</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>6.0990000000000002</v>
-      </c>
-      <c r="D5">
-        <v>6.53</v>
-      </c>
-      <c r="E5">
-        <v>8.09</v>
-      </c>
-      <c r="F5">
-        <v>10.33</v>
-      </c>
-      <c r="G5">
-        <v>12.49</v>
-      </c>
-      <c r="H5">
-        <v>18.32</v>
-      </c>
-      <c r="I5">
-        <v>17.16</v>
+      <c r="C5" s="1">
+        <v>511.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>914</v>
+      </c>
+      <c r="E5" s="1">
+        <v>684.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1493.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1191.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1467.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2224.1999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5.37</v>
-      </c>
-      <c r="D6">
-        <v>24.73</v>
-      </c>
-      <c r="E6">
-        <v>23.53</v>
-      </c>
-      <c r="F6">
-        <v>24.53</v>
-      </c>
-      <c r="G6">
-        <v>23.5</v>
-      </c>
-      <c r="H6">
-        <v>22.44</v>
-      </c>
-      <c r="I6">
-        <v>18.100000000000001</v>
+      <c r="C6" s="1">
+        <v>887</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4203</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3557</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3221</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4254</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3607</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>9.43</v>
-      </c>
-      <c r="D7">
-        <v>21.57</v>
-      </c>
-      <c r="E7">
-        <v>21.55</v>
-      </c>
-      <c r="F7">
-        <v>19.13</v>
-      </c>
-      <c r="G7">
-        <v>21.59</v>
-      </c>
-      <c r="H7">
-        <v>21.6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>25.8</v>
+      <c r="C7" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2313</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2404</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2413</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2258</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2485</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2732</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>15.42</v>
-      </c>
-      <c r="D8">
-        <v>44.54</v>
-      </c>
-      <c r="E8">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="F8">
-        <v>30.72</v>
-      </c>
-      <c r="G8">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="H8">
-        <v>32.78</v>
-      </c>
-      <c r="I8" s="1">
-        <v>28.74</v>
+      <c r="C8" s="1">
+        <v>3763</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12744</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6092</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6384</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6766</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7045</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3544</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>12.53</v>
-      </c>
-      <c r="D9">
-        <v>19.39</v>
-      </c>
-      <c r="E9">
-        <v>16.95</v>
-      </c>
-      <c r="F9">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="G9">
-        <v>18.86</v>
-      </c>
-      <c r="H9">
-        <v>21.45</v>
-      </c>
-      <c r="I9" s="1">
-        <v>33.01</v>
+      <c r="C9" s="1">
+        <v>1263</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2140</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2577</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2472</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3151</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4209</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>15.57</v>
-      </c>
-      <c r="D10">
-        <v>30.55</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>25.46</v>
-      </c>
-      <c r="G10">
-        <v>23.47</v>
-      </c>
-      <c r="H10">
-        <v>19.45</v>
-      </c>
-      <c r="I10" s="1">
-        <v>23.2</v>
-      </c>
+      <c r="C10" s="1">
+        <v>3620</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7018</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3308</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3287</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5648</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2110</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8500,26 +8653,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FE2CDC-D537-4EF1-B380-F50D4D7BD1E4}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -8544,188 +8697,228 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D4">
-        <v>32.17</v>
-      </c>
-      <c r="E4">
-        <v>37.82</v>
-      </c>
-      <c r="F4">
-        <v>37.229999999999997</v>
-      </c>
-      <c r="G4">
-        <v>39.29</v>
-      </c>
-      <c r="H4">
-        <v>39.49</v>
-      </c>
-      <c r="I4">
-        <v>34.32</v>
+      <c r="C4" s="1">
+        <v>3112</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5813</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5613</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5927</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5975</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4393</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4087</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUM(C4:I4)</f>
+        <v>34920</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>5.49</v>
-      </c>
-      <c r="D5">
-        <v>6.53</v>
-      </c>
-      <c r="E5">
-        <v>7.45</v>
-      </c>
-      <c r="F5">
-        <v>9.9</v>
-      </c>
-      <c r="G5">
-        <v>11.57</v>
-      </c>
-      <c r="H5">
-        <v>18.13</v>
-      </c>
-      <c r="I5">
-        <v>16.86</v>
+      <c r="C5" s="1">
+        <v>448.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>914</v>
+      </c>
+      <c r="E5" s="1">
+        <v>627.9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1457.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1094.0999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1451.9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2208.6999999999998</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J10" si="0">SUM(C5:I5)</f>
+        <v>8203</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>4.92</v>
-      </c>
-      <c r="D6">
-        <v>23.68</v>
-      </c>
-      <c r="E6">
-        <v>23.24</v>
-      </c>
-      <c r="F6">
-        <v>24.16</v>
-      </c>
-      <c r="G6">
-        <v>23.3</v>
-      </c>
-      <c r="H6">
-        <v>21.57</v>
-      </c>
-      <c r="I6">
-        <v>18.100000000000001</v>
+      <c r="C6" s="1">
+        <v>805</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4022</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3514</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3195</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4223</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3367</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3607</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>22733</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>9.2680000000000007</v>
-      </c>
-      <c r="D7">
-        <v>21.19</v>
-      </c>
-      <c r="E7">
-        <v>21.35</v>
-      </c>
-      <c r="F7">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="G7">
-        <v>21.38</v>
-      </c>
-      <c r="H7">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>25.73</v>
+      <c r="C7" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2271</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2381</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2354</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2240</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2352</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2724</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>15336</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>15.35</v>
-      </c>
-      <c r="D8">
-        <v>40.35</v>
-      </c>
-      <c r="E8">
-        <v>31.81</v>
-      </c>
-      <c r="F8">
-        <v>29.42</v>
-      </c>
-      <c r="G8">
-        <v>32.31</v>
-      </c>
-      <c r="H8">
-        <v>32.119999999999997</v>
-      </c>
-      <c r="I8" s="1">
-        <v>28.42</v>
+      <c r="C8" s="1">
+        <v>3745</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11487</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5984</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6608</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6868</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3502</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>44294</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>11.5</v>
-      </c>
-      <c r="D9">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="E9">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="F9">
-        <v>17.79</v>
-      </c>
-      <c r="G9">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="H9">
-        <v>21.21</v>
-      </c>
-      <c r="I9" s="1">
-        <v>32.47</v>
+      <c r="C9" s="1">
+        <v>1178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2093</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2502</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2447</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2973</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3118</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4159</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>18470</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>15.472</v>
-      </c>
-      <c r="D10">
-        <v>30.11</v>
-      </c>
-      <c r="E10">
-        <v>24.42</v>
-      </c>
-      <c r="F10">
-        <v>24.38</v>
-      </c>
-      <c r="G10">
-        <v>23.33</v>
-      </c>
-      <c r="H10">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>22.4</v>
-      </c>
+      <c r="C10" s="1">
+        <v>3594</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6929</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3229</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3153</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5607</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2056</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3170</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>27738</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8738,24 +8931,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C78C-C19F-4747-970E-7875A370B4DC}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -8787,183 +8980,201 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="D4">
-        <v>33.25</v>
-      </c>
-      <c r="E4">
-        <v>38.659999999999997</v>
-      </c>
-      <c r="F4">
-        <v>37.659999999999997</v>
-      </c>
-      <c r="G4">
-        <v>39.47</v>
-      </c>
-      <c r="H4">
-        <v>40.06</v>
-      </c>
-      <c r="I4">
-        <v>34.68</v>
+      <c r="C4" s="1">
+        <v>3253</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5979</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5722</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5994</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4456</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4133</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>6.1</v>
-      </c>
-      <c r="D5">
-        <v>6.53</v>
-      </c>
-      <c r="E5">
-        <v>8.09</v>
-      </c>
-      <c r="F5">
-        <v>10.33</v>
-      </c>
-      <c r="G5">
-        <v>12.49</v>
-      </c>
-      <c r="H5">
-        <v>18.32</v>
-      </c>
-      <c r="I5">
-        <v>17.16</v>
+      <c r="C5" s="1">
+        <v>511.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>914</v>
+      </c>
+      <c r="E5" s="1">
+        <v>684.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1493.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1191.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1467.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2224.1999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5.37</v>
-      </c>
-      <c r="D6">
-        <v>24.73</v>
-      </c>
-      <c r="E6">
-        <v>23.53</v>
-      </c>
-      <c r="F6">
-        <v>24.35</v>
-      </c>
-      <c r="G6">
-        <v>23.5</v>
-      </c>
-      <c r="H6">
-        <v>22.44</v>
-      </c>
-      <c r="I6">
-        <v>18.100000000000001</v>
+      <c r="C6" s="1">
+        <v>887</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4204</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3557</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3221</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4254</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3607</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>9.43</v>
-      </c>
-      <c r="D7">
-        <v>21.57</v>
-      </c>
-      <c r="E7">
-        <v>21.55</v>
-      </c>
-      <c r="F7">
-        <v>19.13</v>
-      </c>
-      <c r="G7">
-        <v>21.59</v>
-      </c>
-      <c r="H7">
-        <v>21.6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>25.8</v>
+      <c r="C7" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2313</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2404</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2413</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2258</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2485</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2732</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>15.42</v>
-      </c>
-      <c r="D8">
-        <v>44.54</v>
-      </c>
-      <c r="E8">
-        <v>32.270000000000003</v>
-      </c>
-      <c r="F8">
-        <v>30.72</v>
-      </c>
-      <c r="G8">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="H8">
-        <v>32.78</v>
-      </c>
-      <c r="I8" s="1">
-        <v>28.74</v>
+      <c r="C8" s="1">
+        <v>3763</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12744</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6092</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6384</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6766</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7045</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3544</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>12.53</v>
-      </c>
-      <c r="D9">
-        <v>19.39</v>
-      </c>
-      <c r="E9">
-        <v>16.95</v>
-      </c>
-      <c r="F9">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="G9">
-        <v>18.86</v>
-      </c>
-      <c r="H9">
-        <v>21.49</v>
-      </c>
-      <c r="I9" s="1">
-        <v>33.01</v>
+      <c r="C9" s="1">
+        <v>1263</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2140</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2577</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2472</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3151</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4209</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>15.57</v>
-      </c>
-      <c r="D10">
-        <v>30.55</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>25.46</v>
-      </c>
-      <c r="G10">
-        <v>23.47</v>
-      </c>
-      <c r="H10">
-        <v>19.45</v>
-      </c>
-      <c r="I10" s="1">
-        <v>23.2</v>
-      </c>
+      <c r="C10" s="1">
+        <v>3620</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7018</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3308</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3287</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5648</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2110</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
